--- a/conditions/5_08_mod_logging2/稼働工程表.xlsx
+++ b/conditions/5_08_mod_logging2/稼働工程表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfe144674\WorkSpace\PJ493_DataAssim_CatalyticReactor\codes_PJ493\05_gas_adsorption_3dim\conditions\5_05_mod_termination_conds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfe105269\Desktop\PJ\493_触媒反応器データ同化\PJ493_CatReactorAssimilation_05_gas_adsorption_3dim\conditions\5_08_mod_logging2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464C1574-4374-44A0-A481-585383AF068B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0790C5E9-1A8C-475E-B92D-05D8502C6E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="870" windowWidth="18270" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工程" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
   <si>
     <t>#</t>
   </si>
@@ -123,7 +123,17 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>時間経過_30_s</t>
+    <t>バッチ吸着_上流（圧調弁あり）</t>
+  </si>
+  <si>
+    <t>バッチ吸着_下流（圧調弁あり）</t>
+  </si>
+  <si>
+    <t>バッチ吸着_下流（圧調弁あり）</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>時間経過_15_s</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -579,20 +589,20 @@
   </sheetPr>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
@@ -609,7 +619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -626,7 +636,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -643,7 +653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -660,7 +670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -677,7 +687,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -694,7 +704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -711,7 +721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -728,7 +738,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -742,18 +752,18 @@
         <v>6</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>7</v>
@@ -762,7 +772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -779,7 +789,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -796,7 +806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -813,7 +823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -827,10 +837,10 @@
         <v>8</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -838,16 +848,16 @@
         <v>7</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -864,7 +874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -881,7 +891,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -895,27 +905,27 @@
         <v>4</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -932,77 +942,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1024,13 +1034,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1038,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1046,7 +1056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1054,7 +1064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1062,7 +1072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1070,7 +1080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1078,7 +1088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1086,7 +1096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1094,7 +1104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1102,7 +1112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>

--- a/conditions/5_08_mod_logging2/稼働工程表.xlsx
+++ b/conditions/5_08_mod_logging2/稼働工程表.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfe105269\Desktop\PJ\493_触媒反応器データ同化\PJ493_CatReactorAssimilation_05_gas_adsorption_3dim\conditions\5_08_mod_logging2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfe103656\Desktop\20250618最新コード\conditions\5_08_mod_logging2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0790C5E9-1A8C-475E-B92D-05D8502C6E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B94368-5533-4868-92E7-6C1F068A45DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="870" windowWidth="18270" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工程" sheetId="1" r:id="rId1"/>
     <sheet name="稼働モード一覧" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -589,20 +602,20 @@
   </sheetPr>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
@@ -619,7 +632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -636,7 +649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -653,7 +666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -670,7 +683,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -687,7 +700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -704,7 +717,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -721,7 +734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -738,7 +751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -755,7 +768,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -772,7 +785,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -789,7 +802,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -806,7 +819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -823,7 +836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -840,7 +853,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -857,7 +870,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -874,7 +887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -891,7 +904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -908,7 +921,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -925,7 +938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -942,77 +955,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1034,13 +1047,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1048,7 +1061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1056,7 +1069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1064,7 +1077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1072,7 +1085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1080,7 +1093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1088,7 +1101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1096,7 +1109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1104,7 +1117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1112,7 +1125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1124,4 +1137,225 @@
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100BF9BF6809288764B967DAFE255E17EFE" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b261726c8bce847ce3a44c79ca54fa9d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="64b22170-f376-4092-ba6f-46ff91c6d492" xmlns:ns3="e7112f48-bca0-455a-90cc-a80be98fe11f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ab0fbf0116b8f401e239faaa4b4d25c7" ns2:_="" ns3:_="">
+    <xsd:import namespace="64b22170-f376-4092-ba6f-46ff91c6d492"/>
+    <xsd:import namespace="e7112f48-bca0-455a-90cc-a80be98fe11f"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="64b22170-f376-4092-ba6f-46ff91c6d492" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="051029a1-0f84-4a5a-a3ee-fbd761889026" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e7112f48-bca0-455a-90cc-a80be98fe11f" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{94ff62da-4d83-4c91-a5cc-fdff94f4b183}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="e7112f48-bca0-455a-90cc-a80be98fe11f">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="コンテンツ タイプ"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="タイトル"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e7112f48-bca0-455a-90cc-a80be98fe11f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="64b22170-f376-4092-ba6f-46ff91c6d492">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2772A1A-8535-4CA7-80A9-817E77D39EC6}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47485633-1683-4B64-A167-A051FE2A3F2D}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88D44815-3459-4394-AE55-A1C8C3BA3690}"/>
 </file>